--- a/BaseballProject/Distance.xlsx
+++ b/BaseballProject/Distance.xlsx
@@ -11,6 +11,101 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
+  <si>
+    <t>AT&amp;T Park</t>
+  </si>
+  <si>
+    <t>Safeco Field</t>
+  </si>
+  <si>
+    <t>Oakland–Alameda County Coliseum</t>
+  </si>
+  <si>
+    <t>Angel Stadium</t>
+  </si>
+  <si>
+    <t>Petco Park</t>
+  </si>
+  <si>
+    <t>Dodger Stadium</t>
+  </si>
+  <si>
+    <t>Busch Stadium</t>
+  </si>
+  <si>
+    <t>Minute Maid Park</t>
+  </si>
+  <si>
+    <t>Great American Ball Park</t>
+  </si>
+  <si>
+    <t>Target Field</t>
+  </si>
+  <si>
+    <t>Kauffman Stadium</t>
+  </si>
+  <si>
+    <t>Chase Field</t>
+  </si>
+  <si>
+    <t>Coors Field</t>
+  </si>
+  <si>
+    <t>Globe Life Park in Arlington</t>
+  </si>
+  <si>
+    <t>Citi Field</t>
+  </si>
+  <si>
+    <t>Fenway Park</t>
+  </si>
+  <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
+    <t>Citizens Bank Park</t>
+  </si>
+  <si>
+    <t>Oriole Park at Camden Yards</t>
+  </si>
+  <si>
+    <t>Comerica Park</t>
+  </si>
+  <si>
+    <t>Guaranteed Rate Field</t>
+  </si>
+  <si>
+    <t>Rogers Centre</t>
+  </si>
+  <si>
+    <t>Progressive Field</t>
+  </si>
+  <si>
+    <t>Marlins Park</t>
+  </si>
+  <si>
+    <t>Sun Trust Park</t>
+  </si>
+  <si>
+    <t>PNC Park</t>
+  </si>
+  <si>
+    <t>Tropicana Field</t>
+  </si>
+  <si>
+    <t>Wrigley Field</t>
+  </si>
+  <si>
+    <t>Nationals Park</t>
+  </si>
+  <si>
+    <t>Miller Park</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,4 +427,1183 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C107"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
+</worksheet>
 </file>